--- a/Aquacrop_crop_table_from_database.xlsx
+++ b/Aquacrop_crop_table_from_database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>User</t>
   </si>
@@ -653,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE4"/>
+  <dimension ref="A1:CE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,6 +1660,759 @@
         <v>0.001165</v>
       </c>
     </row>
+    <row r="5" spans="1:83">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5">
+        <v>78.93000000000001</v>
+      </c>
+      <c r="K5">
+        <v>644.4</v>
+      </c>
+      <c r="L5">
+        <v>798.27</v>
+      </c>
+      <c r="M5">
+        <v>814.05</v>
+      </c>
+      <c r="N5">
+        <v>330.355</v>
+      </c>
+      <c r="O5">
+        <v>540</v>
+      </c>
+      <c r="P5">
+        <v>648</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>14.2</v>
+      </c>
+      <c r="S5">
+        <v>48.2</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>37</v>
+      </c>
+      <c r="V5">
+        <v>50</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>15</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.3</v>
+      </c>
+      <c r="AD5">
+        <v>0.8</v>
+      </c>
+      <c r="AE5">
+        <v>1.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.048</v>
+      </c>
+      <c r="AG5">
+        <v>0.016</v>
+      </c>
+      <c r="AH5">
+        <v>4.32</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5">
+        <v>0.96</v>
+      </c>
+      <c r="AK5">
+        <v>0.004</v>
+      </c>
+      <c r="AL5">
+        <v>0.005</v>
+      </c>
+      <c r="AM5">
+        <v>1.15</v>
+      </c>
+      <c r="AN5">
+        <v>0.1</v>
+      </c>
+      <c r="AO5">
+        <v>15</v>
+      </c>
+      <c r="AP5">
+        <v>100</v>
+      </c>
+      <c r="AQ5">
+        <v>0.3</v>
+      </c>
+      <c r="AR5">
+        <v>0.29</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5">
+        <v>10</v>
+      </c>
+      <c r="AV5">
+        <v>15</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0.35</v>
+      </c>
+      <c r="AZ5">
+        <v>0.7</v>
+      </c>
+      <c r="BA5">
+        <v>0.8</v>
+      </c>
+      <c r="BB5">
+        <v>0.95</v>
+      </c>
+      <c r="BC5">
+        <v>0.7</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>2.9</v>
+      </c>
+      <c r="BH5">
+        <v>6</v>
+      </c>
+      <c r="BI5">
+        <v>2.7</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>13.814</v>
+      </c>
+      <c r="BS5">
+        <v>70</v>
+      </c>
+      <c r="BT5">
+        <v>-6</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>5</v>
+      </c>
+      <c r="BW5">
+        <v>3</v>
+      </c>
+      <c r="BX5">
+        <v>12</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0.05</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC5">
+        <v>0.01</v>
+      </c>
+      <c r="CD5">
+        <v>0.000138</v>
+      </c>
+      <c r="CE5">
+        <v>0.001165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6">
+        <v>78.93000000000001</v>
+      </c>
+      <c r="K6">
+        <v>644.4</v>
+      </c>
+      <c r="L6">
+        <v>798.27</v>
+      </c>
+      <c r="M6">
+        <v>814.05</v>
+      </c>
+      <c r="N6">
+        <v>330.355</v>
+      </c>
+      <c r="O6">
+        <v>540</v>
+      </c>
+      <c r="P6">
+        <v>648</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>14.2</v>
+      </c>
+      <c r="S6">
+        <v>48.2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>37</v>
+      </c>
+      <c r="V6">
+        <v>50</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>15</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>12</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0.3</v>
+      </c>
+      <c r="AD6">
+        <v>0.8</v>
+      </c>
+      <c r="AE6">
+        <v>1.5</v>
+      </c>
+      <c r="AF6">
+        <v>0.048</v>
+      </c>
+      <c r="AG6">
+        <v>0.016</v>
+      </c>
+      <c r="AH6">
+        <v>4.32</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ6">
+        <v>0.96</v>
+      </c>
+      <c r="AK6">
+        <v>0.004</v>
+      </c>
+      <c r="AL6">
+        <v>0.005</v>
+      </c>
+      <c r="AM6">
+        <v>1.15</v>
+      </c>
+      <c r="AN6">
+        <v>0.1</v>
+      </c>
+      <c r="AO6">
+        <v>15</v>
+      </c>
+      <c r="AP6">
+        <v>100</v>
+      </c>
+      <c r="AQ6">
+        <v>0.3</v>
+      </c>
+      <c r="AR6">
+        <v>0.29</v>
+      </c>
+      <c r="AS6">
+        <v>5</v>
+      </c>
+      <c r="AT6">
+        <v>4</v>
+      </c>
+      <c r="AU6">
+        <v>10</v>
+      </c>
+      <c r="AV6">
+        <v>15</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0.35</v>
+      </c>
+      <c r="AZ6">
+        <v>0.7</v>
+      </c>
+      <c r="BA6">
+        <v>0.8</v>
+      </c>
+      <c r="BB6">
+        <v>0.95</v>
+      </c>
+      <c r="BC6">
+        <v>0.7</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>2.9</v>
+      </c>
+      <c r="BH6">
+        <v>6</v>
+      </c>
+      <c r="BI6">
+        <v>2.7</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>13.814</v>
+      </c>
+      <c r="BS6">
+        <v>70</v>
+      </c>
+      <c r="BT6">
+        <v>-6</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>5</v>
+      </c>
+      <c r="BW6">
+        <v>3</v>
+      </c>
+      <c r="BX6">
+        <v>12</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0.05</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC6">
+        <v>0.01</v>
+      </c>
+      <c r="CD6">
+        <v>0.000138</v>
+      </c>
+      <c r="CE6">
+        <v>0.001165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>1400</v>
+      </c>
+      <c r="L7">
+        <v>1400</v>
+      </c>
+      <c r="M7">
+        <v>1700</v>
+      </c>
+      <c r="N7">
+        <v>880</v>
+      </c>
+      <c r="O7">
+        <v>180</v>
+      </c>
+      <c r="P7">
+        <v>750</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>37.78</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>32.22</v>
+      </c>
+      <c r="V7">
+        <v>43.33</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <v>12.5</v>
+      </c>
+      <c r="AC7">
+        <v>0.3</v>
+      </c>
+      <c r="AD7">
+        <v>2.1</v>
+      </c>
+      <c r="AE7">
+        <v>1.3</v>
+      </c>
+      <c r="AF7">
+        <v>0.01</v>
+      </c>
+      <c r="AG7">
+        <v>0.003</v>
+      </c>
+      <c r="AH7">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ7">
+        <v>0.96</v>
+      </c>
+      <c r="AK7">
+        <v>0.004</v>
+      </c>
+      <c r="AL7">
+        <v>0.005</v>
+      </c>
+      <c r="AM7">
+        <v>1.15</v>
+      </c>
+      <c r="AN7">
+        <v>0.1</v>
+      </c>
+      <c r="AO7">
+        <v>15</v>
+      </c>
+      <c r="AP7">
+        <v>100</v>
+      </c>
+      <c r="AQ7">
+        <v>0.3</v>
+      </c>
+      <c r="AR7">
+        <v>0.29</v>
+      </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>4</v>
+      </c>
+      <c r="AU7">
+        <v>10</v>
+      </c>
+      <c r="AV7">
+        <v>15</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0.35</v>
+      </c>
+      <c r="AZ7">
+        <v>0.7</v>
+      </c>
+      <c r="BA7">
+        <v>0.8</v>
+      </c>
+      <c r="BB7">
+        <v>0.95</v>
+      </c>
+      <c r="BC7">
+        <v>0.7</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>2.9</v>
+      </c>
+      <c r="BH7">
+        <v>6</v>
+      </c>
+      <c r="BI7">
+        <v>2.7</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>13.814</v>
+      </c>
+      <c r="BS7">
+        <v>70</v>
+      </c>
+      <c r="BT7">
+        <v>-6</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>5</v>
+      </c>
+      <c r="BW7">
+        <v>3</v>
+      </c>
+      <c r="BX7">
+        <v>12</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0.05</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC7">
+        <v>0.01</v>
+      </c>
+      <c r="CD7">
+        <v>0.000138</v>
+      </c>
+      <c r="CE7">
+        <v>0.001165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aquacrop_crop_table_from_database.xlsx
+++ b/Aquacrop_crop_table_from_database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473a0448093efc11/Documents/423-Aquacrop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC02109ADE0EA160B2E93CB6EA161E4038C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1F6FF5D8-CC79-4044-BF8F-48061DD1D677}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
   <si>
     <t>User</t>
   </si>
@@ -262,37 +268,55 @@
     <t>bface</t>
   </si>
   <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
     <t>Pete</t>
   </si>
   <si>
-    <t>Wanyu</t>
-  </si>
-  <si>
-    <t>Guar_a</t>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Brooke</t>
   </si>
   <si>
     <t>Guar</t>
   </si>
   <si>
-    <t>Guayule</t>
-  </si>
-  <si>
-    <t>07/03</t>
-  </si>
-  <si>
-    <t>01/01</t>
-  </si>
-  <si>
-    <t>11/16</t>
-  </si>
-  <si>
-    <t>12/31</t>
-  </si>
-  <si>
-    <t>123_000</t>
-  </si>
-  <si>
-    <t>27_000</t>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>15-Jun</t>
+  </si>
+  <si>
+    <t>15-jun</t>
+  </si>
+  <si>
+    <t>16-Nov</t>
+  </si>
+  <si>
+    <t>16-nov</t>
+  </si>
+  <si>
+    <t>240_001</t>
+  </si>
+  <si>
+    <t>240_000</t>
+  </si>
+  <si>
+    <t>100/4</t>
   </si>
   <si>
     <t>100/3</t>
@@ -301,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +389,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,9 +475,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +527,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,14 +720,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="58" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="62" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="8.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +1051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -915,13 +1059,13 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -930,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J2">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K2">
         <v>644.4</v>
@@ -948,7 +1092,7 @@
         <v>814.05</v>
       </c>
       <c r="N2">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O2">
         <v>540</v>
@@ -996,34 +1140,34 @@
         <v>0.3</v>
       </c>
       <c r="AD2">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AE2">
         <v>1.5</v>
       </c>
       <c r="AF2">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG2">
-        <v>0.016</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH2">
         <v>4.32</v>
       </c>
       <c r="AI2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AJ2">
         <v>0.96</v>
       </c>
       <c r="AK2">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM2">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN2">
         <v>0.1</v>
@@ -1038,7 +1182,7 @@
         <v>0.3</v>
       </c>
       <c r="AR2">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS2">
         <v>5</v>
@@ -1146,33 +1290,33 @@
         <v>0.05</v>
       </c>
       <c r="CB2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="CC2">
         <v>0.01</v>
       </c>
       <c r="CD2">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE2">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1181,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J3">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K3">
         <v>644.4</v>
@@ -1199,7 +1343,7 @@
         <v>814.05</v>
       </c>
       <c r="N3">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O3">
         <v>540</v>
@@ -1247,34 +1391,34 @@
         <v>0.3</v>
       </c>
       <c r="AD3">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AE3">
         <v>1.5</v>
       </c>
       <c r="AF3">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG3">
-        <v>0.016</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH3">
         <v>4.32</v>
       </c>
       <c r="AI3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AJ3">
         <v>0.96</v>
       </c>
       <c r="AK3">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL3">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM3">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN3">
         <v>0.1</v>
@@ -1289,7 +1433,7 @@
         <v>0.3</v>
       </c>
       <c r="AR3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS3">
         <v>5</v>
@@ -1397,135 +1541,135 @@
         <v>0.05</v>
       </c>
       <c r="CB3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CC3">
         <v>0.01</v>
       </c>
       <c r="CD3">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE3">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K4">
-        <v>1400</v>
+        <v>644.4</v>
       </c>
       <c r="L4">
-        <v>1400</v>
+        <v>798.27</v>
       </c>
       <c r="M4">
-        <v>1700</v>
+        <v>814.05</v>
       </c>
       <c r="N4">
-        <v>880</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O4">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="P4">
-        <v>750</v>
+        <v>648</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>14.2</v>
       </c>
       <c r="S4">
-        <v>37.78</v>
+        <v>48.2</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>32.22</v>
+        <v>37</v>
       </c>
       <c r="V4">
-        <v>43.33</v>
+        <v>50</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AB4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0.3</v>
       </c>
       <c r="AD4">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AE4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AF4">
-        <v>0.01</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG4">
-        <v>0.003</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH4">
-        <v>6.5</v>
+        <v>4.32</v>
       </c>
       <c r="AI4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AJ4">
         <v>0.96</v>
       </c>
       <c r="AK4">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM4">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN4">
         <v>0.1</v>
@@ -1540,7 +1684,7 @@
         <v>0.3</v>
       </c>
       <c r="AR4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS4">
         <v>5</v>
@@ -1648,33 +1792,33 @@
         <v>0.05</v>
       </c>
       <c r="CB4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CC4">
         <v>0.01</v>
       </c>
       <c r="CD4">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE4">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1683,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J5">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K5">
         <v>644.4</v>
@@ -1701,7 +1845,7 @@
         <v>814.05</v>
       </c>
       <c r="N5">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O5">
         <v>540</v>
@@ -1749,34 +1893,34 @@
         <v>0.3</v>
       </c>
       <c r="AD5">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AE5">
         <v>1.5</v>
       </c>
       <c r="AF5">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG5">
-        <v>0.016</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH5">
         <v>4.32</v>
       </c>
       <c r="AI5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AJ5">
         <v>0.96</v>
       </c>
       <c r="AK5">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM5">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN5">
         <v>0.1</v>
@@ -1791,7 +1935,7 @@
         <v>0.3</v>
       </c>
       <c r="AR5">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS5">
         <v>5</v>
@@ -1899,33 +2043,33 @@
         <v>0.05</v>
       </c>
       <c r="CB5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CC5">
         <v>0.01</v>
       </c>
       <c r="CD5">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE5">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1934,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J6">
-        <v>78.93000000000001</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K6">
         <v>644.4</v>
@@ -1952,7 +2096,7 @@
         <v>814.05</v>
       </c>
       <c r="N6">
-        <v>330.355</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O6">
         <v>540</v>
@@ -2000,34 +2144,34 @@
         <v>0.3</v>
       </c>
       <c r="AD6">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AE6">
         <v>1.5</v>
       </c>
       <c r="AF6">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG6">
-        <v>0.016</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH6">
         <v>4.32</v>
       </c>
       <c r="AI6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AJ6">
         <v>0.96</v>
       </c>
       <c r="AK6">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL6">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM6">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN6">
         <v>0.1</v>
@@ -2042,7 +2186,7 @@
         <v>0.3</v>
       </c>
       <c r="AR6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS6">
         <v>5</v>
@@ -2150,135 +2294,135 @@
         <v>0.05</v>
       </c>
       <c r="CB6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CC6">
         <v>0.01</v>
       </c>
       <c r="CD6">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE6">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="K7">
-        <v>1400</v>
+        <v>644.4</v>
       </c>
       <c r="L7">
-        <v>1400</v>
+        <v>798.27</v>
       </c>
       <c r="M7">
-        <v>1700</v>
+        <v>814.05</v>
       </c>
       <c r="N7">
-        <v>880</v>
+        <v>330.35500000000002</v>
       </c>
       <c r="O7">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="P7">
-        <v>750</v>
+        <v>648</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>14.2</v>
       </c>
       <c r="S7">
-        <v>37.78</v>
+        <v>48.2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>32.22</v>
+        <v>37</v>
       </c>
       <c r="V7">
-        <v>43.33</v>
+        <v>50</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AB7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0.3</v>
       </c>
       <c r="AD7">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AE7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AF7">
-        <v>0.01</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG7">
-        <v>0.003</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH7">
-        <v>6.5</v>
+        <v>4.32</v>
       </c>
       <c r="AI7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AJ7">
         <v>0.96</v>
       </c>
       <c r="AK7">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL7">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM7">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AN7">
         <v>0.1</v>
@@ -2293,7 +2437,7 @@
         <v>0.3</v>
       </c>
       <c r="AR7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AS7">
         <v>5</v>
@@ -2401,16 +2545,2029 @@
         <v>0.05</v>
       </c>
       <c r="CB7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CC7">
         <v>0.01</v>
       </c>
       <c r="CD7">
-        <v>0.000138</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="CE7">
-        <v>0.001165</v>
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K8">
+        <v>644.4</v>
+      </c>
+      <c r="L8">
+        <v>798.27</v>
+      </c>
+      <c r="M8">
+        <v>814.05</v>
+      </c>
+      <c r="N8">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O8">
+        <v>540</v>
+      </c>
+      <c r="P8">
+        <v>648</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>14.2</v>
+      </c>
+      <c r="S8">
+        <v>48.2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>37</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>15</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0.3</v>
+      </c>
+      <c r="AD8">
+        <v>1.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.5</v>
+      </c>
+      <c r="AF8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH8">
+        <v>4.32</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ8">
+        <v>0.96</v>
+      </c>
+      <c r="AK8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.1</v>
+      </c>
+      <c r="AO8">
+        <v>15</v>
+      </c>
+      <c r="AP8">
+        <v>100</v>
+      </c>
+      <c r="AQ8">
+        <v>0.3</v>
+      </c>
+      <c r="AR8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS8">
+        <v>5</v>
+      </c>
+      <c r="AT8">
+        <v>4</v>
+      </c>
+      <c r="AU8">
+        <v>10</v>
+      </c>
+      <c r="AV8">
+        <v>15</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0.35</v>
+      </c>
+      <c r="AZ8">
+        <v>0.7</v>
+      </c>
+      <c r="BA8">
+        <v>0.8</v>
+      </c>
+      <c r="BB8">
+        <v>0.95</v>
+      </c>
+      <c r="BC8">
+        <v>0.7</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>2.9</v>
+      </c>
+      <c r="BH8">
+        <v>6</v>
+      </c>
+      <c r="BI8">
+        <v>2.7</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>13.814</v>
+      </c>
+      <c r="BS8">
+        <v>70</v>
+      </c>
+      <c r="BT8">
+        <v>-6</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>5</v>
+      </c>
+      <c r="BW8">
+        <v>3</v>
+      </c>
+      <c r="BX8">
+        <v>12</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0.05</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC8">
+        <v>0.01</v>
+      </c>
+      <c r="CD8">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE8">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K9">
+        <v>644.4</v>
+      </c>
+      <c r="L9">
+        <v>798.27</v>
+      </c>
+      <c r="M9">
+        <v>814.05</v>
+      </c>
+      <c r="N9">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O9">
+        <v>540</v>
+      </c>
+      <c r="P9">
+        <v>648</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>14.2</v>
+      </c>
+      <c r="S9">
+        <v>48.2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>37</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>15</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>12</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.3</v>
+      </c>
+      <c r="AD9">
+        <v>1.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.5</v>
+      </c>
+      <c r="AF9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH9">
+        <v>4.32</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ9">
+        <v>0.96</v>
+      </c>
+      <c r="AK9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.1</v>
+      </c>
+      <c r="AO9">
+        <v>15</v>
+      </c>
+      <c r="AP9">
+        <v>100</v>
+      </c>
+      <c r="AQ9">
+        <v>0.3</v>
+      </c>
+      <c r="AR9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>5</v>
+      </c>
+      <c r="AT9">
+        <v>4</v>
+      </c>
+      <c r="AU9">
+        <v>10</v>
+      </c>
+      <c r="AV9">
+        <v>15</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0.35</v>
+      </c>
+      <c r="AZ9">
+        <v>0.7</v>
+      </c>
+      <c r="BA9">
+        <v>0.8</v>
+      </c>
+      <c r="BB9">
+        <v>0.95</v>
+      </c>
+      <c r="BC9">
+        <v>0.7</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>2.9</v>
+      </c>
+      <c r="BH9">
+        <v>6</v>
+      </c>
+      <c r="BI9">
+        <v>2.7</v>
+      </c>
+      <c r="BJ9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>13.814</v>
+      </c>
+      <c r="BS9">
+        <v>70</v>
+      </c>
+      <c r="BT9">
+        <v>-6</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>5</v>
+      </c>
+      <c r="BW9">
+        <v>3</v>
+      </c>
+      <c r="BX9">
+        <v>12</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0.05</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC9">
+        <v>0.01</v>
+      </c>
+      <c r="CD9">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE9">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K10">
+        <v>644.4</v>
+      </c>
+      <c r="L10">
+        <v>798.27</v>
+      </c>
+      <c r="M10">
+        <v>814.05</v>
+      </c>
+      <c r="N10">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O10">
+        <v>540</v>
+      </c>
+      <c r="P10">
+        <v>648</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>14.2</v>
+      </c>
+      <c r="S10">
+        <v>48.2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>37</v>
+      </c>
+      <c r="V10">
+        <v>50</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>15</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>12</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.3</v>
+      </c>
+      <c r="AD10">
+        <v>1.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.5</v>
+      </c>
+      <c r="AF10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH10">
+        <v>4.32</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ10">
+        <v>0.96</v>
+      </c>
+      <c r="AK10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN10">
+        <v>0.1</v>
+      </c>
+      <c r="AO10">
+        <v>15</v>
+      </c>
+      <c r="AP10">
+        <v>100</v>
+      </c>
+      <c r="AQ10">
+        <v>0.3</v>
+      </c>
+      <c r="AR10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>5</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>10</v>
+      </c>
+      <c r="AV10">
+        <v>15</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0.35</v>
+      </c>
+      <c r="AZ10">
+        <v>0.7</v>
+      </c>
+      <c r="BA10">
+        <v>0.8</v>
+      </c>
+      <c r="BB10">
+        <v>0.95</v>
+      </c>
+      <c r="BC10">
+        <v>0.7</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>2.9</v>
+      </c>
+      <c r="BH10">
+        <v>6</v>
+      </c>
+      <c r="BI10">
+        <v>2.7</v>
+      </c>
+      <c r="BJ10">
+        <v>1</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>13.814</v>
+      </c>
+      <c r="BS10">
+        <v>70</v>
+      </c>
+      <c r="BT10">
+        <v>-6</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
+        <v>5</v>
+      </c>
+      <c r="BW10">
+        <v>3</v>
+      </c>
+      <c r="BX10">
+        <v>12</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0.05</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC10">
+        <v>0.01</v>
+      </c>
+      <c r="CD10">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE10">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K11">
+        <v>644.4</v>
+      </c>
+      <c r="L11">
+        <v>798.27</v>
+      </c>
+      <c r="M11">
+        <v>814.05</v>
+      </c>
+      <c r="N11">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O11">
+        <v>540</v>
+      </c>
+      <c r="P11">
+        <v>648</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>14.2</v>
+      </c>
+      <c r="S11">
+        <v>48.2</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>37</v>
+      </c>
+      <c r="V11">
+        <v>50</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>15</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
+      <c r="AD11">
+        <v>1.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.5</v>
+      </c>
+      <c r="AF11">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH11">
+        <v>4.32</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ11">
+        <v>0.96</v>
+      </c>
+      <c r="AK11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.1</v>
+      </c>
+      <c r="AO11">
+        <v>15</v>
+      </c>
+      <c r="AP11">
+        <v>100</v>
+      </c>
+      <c r="AQ11">
+        <v>0.3</v>
+      </c>
+      <c r="AR11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS11">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <v>4</v>
+      </c>
+      <c r="AU11">
+        <v>10</v>
+      </c>
+      <c r="AV11">
+        <v>15</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0.35</v>
+      </c>
+      <c r="AZ11">
+        <v>0.7</v>
+      </c>
+      <c r="BA11">
+        <v>0.8</v>
+      </c>
+      <c r="BB11">
+        <v>0.95</v>
+      </c>
+      <c r="BC11">
+        <v>0.7</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>2.9</v>
+      </c>
+      <c r="BH11">
+        <v>6</v>
+      </c>
+      <c r="BI11">
+        <v>2.7</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>13.814</v>
+      </c>
+      <c r="BS11">
+        <v>70</v>
+      </c>
+      <c r="BT11">
+        <v>-6</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>5</v>
+      </c>
+      <c r="BW11">
+        <v>3</v>
+      </c>
+      <c r="BX11">
+        <v>12</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0.05</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC11">
+        <v>0.01</v>
+      </c>
+      <c r="CD11">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE11">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K12">
+        <v>644.4</v>
+      </c>
+      <c r="L12">
+        <v>798.27</v>
+      </c>
+      <c r="M12">
+        <v>814.05</v>
+      </c>
+      <c r="N12">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O12">
+        <v>540</v>
+      </c>
+      <c r="P12">
+        <v>648</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>14.2</v>
+      </c>
+      <c r="S12">
+        <v>48.2</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>37</v>
+      </c>
+      <c r="V12">
+        <v>50</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>12</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0.3</v>
+      </c>
+      <c r="AD12">
+        <v>1.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH12">
+        <v>4.32</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12">
+        <v>0.96</v>
+      </c>
+      <c r="AK12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN12">
+        <v>0.1</v>
+      </c>
+      <c r="AO12">
+        <v>15</v>
+      </c>
+      <c r="AP12">
+        <v>100</v>
+      </c>
+      <c r="AQ12">
+        <v>0.3</v>
+      </c>
+      <c r="AR12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS12">
+        <v>5</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>10</v>
+      </c>
+      <c r="AV12">
+        <v>15</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0.35</v>
+      </c>
+      <c r="AZ12">
+        <v>0.7</v>
+      </c>
+      <c r="BA12">
+        <v>0.8</v>
+      </c>
+      <c r="BB12">
+        <v>0.95</v>
+      </c>
+      <c r="BC12">
+        <v>0.7</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>2.9</v>
+      </c>
+      <c r="BH12">
+        <v>6</v>
+      </c>
+      <c r="BI12">
+        <v>2.7</v>
+      </c>
+      <c r="BJ12">
+        <v>1</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>13.814</v>
+      </c>
+      <c r="BS12">
+        <v>70</v>
+      </c>
+      <c r="BT12">
+        <v>-6</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>5</v>
+      </c>
+      <c r="BW12">
+        <v>3</v>
+      </c>
+      <c r="BX12">
+        <v>12</v>
+      </c>
+      <c r="BY12">
+        <v>1</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0.05</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC12">
+        <v>0.01</v>
+      </c>
+      <c r="CD12">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE12">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K14">
+        <v>644.4</v>
+      </c>
+      <c r="L14">
+        <v>798.27</v>
+      </c>
+      <c r="M14">
+        <v>814.05</v>
+      </c>
+      <c r="N14">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O14">
+        <v>540</v>
+      </c>
+      <c r="P14">
+        <v>648</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>14.2</v>
+      </c>
+      <c r="S14">
+        <v>48.2</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>37</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>15</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0.3</v>
+      </c>
+      <c r="AD14">
+        <v>1.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.5</v>
+      </c>
+      <c r="AF14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH14">
+        <v>4.32</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ14">
+        <v>0.96</v>
+      </c>
+      <c r="AK14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN14">
+        <v>0.1</v>
+      </c>
+      <c r="AO14">
+        <v>15</v>
+      </c>
+      <c r="AP14">
+        <v>100</v>
+      </c>
+      <c r="AQ14">
+        <v>0.3</v>
+      </c>
+      <c r="AR14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS14">
+        <v>5</v>
+      </c>
+      <c r="AT14">
+        <v>4</v>
+      </c>
+      <c r="AU14">
+        <v>10</v>
+      </c>
+      <c r="AV14">
+        <v>15</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0.35</v>
+      </c>
+      <c r="AZ14">
+        <v>0.7</v>
+      </c>
+      <c r="BA14">
+        <v>0.8</v>
+      </c>
+      <c r="BB14">
+        <v>0.95</v>
+      </c>
+      <c r="BC14">
+        <v>0.7</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>2.9</v>
+      </c>
+      <c r="BH14">
+        <v>6</v>
+      </c>
+      <c r="BI14">
+        <v>2.7</v>
+      </c>
+      <c r="BJ14">
+        <v>1</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>13.814</v>
+      </c>
+      <c r="BS14">
+        <v>70</v>
+      </c>
+      <c r="BT14">
+        <v>-6</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>5</v>
+      </c>
+      <c r="BW14">
+        <v>3</v>
+      </c>
+      <c r="BX14">
+        <v>12</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0.05</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC14">
+        <v>0.01</v>
+      </c>
+      <c r="CD14">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE14">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K15">
+        <v>644.4</v>
+      </c>
+      <c r="L15">
+        <v>798.27</v>
+      </c>
+      <c r="M15">
+        <v>814.05</v>
+      </c>
+      <c r="N15">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O15">
+        <v>540</v>
+      </c>
+      <c r="P15">
+        <v>648</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>14.2</v>
+      </c>
+      <c r="S15">
+        <v>48.2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>37</v>
+      </c>
+      <c r="V15">
+        <v>50</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>15</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>12</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0.3</v>
+      </c>
+      <c r="AD15">
+        <v>1.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.5</v>
+      </c>
+      <c r="AF15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH15">
+        <v>4.32</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ15">
+        <v>0.96</v>
+      </c>
+      <c r="AK15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN15">
+        <v>0.1</v>
+      </c>
+      <c r="AO15">
+        <v>15</v>
+      </c>
+      <c r="AP15">
+        <v>100</v>
+      </c>
+      <c r="AQ15">
+        <v>0.3</v>
+      </c>
+      <c r="AR15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS15">
+        <v>5</v>
+      </c>
+      <c r="AT15">
+        <v>4</v>
+      </c>
+      <c r="AU15">
+        <v>10</v>
+      </c>
+      <c r="AV15">
+        <v>15</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0.35</v>
+      </c>
+      <c r="AZ15">
+        <v>0.7</v>
+      </c>
+      <c r="BA15">
+        <v>0.8</v>
+      </c>
+      <c r="BB15">
+        <v>0.95</v>
+      </c>
+      <c r="BC15">
+        <v>0.7</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>2.9</v>
+      </c>
+      <c r="BH15">
+        <v>6</v>
+      </c>
+      <c r="BI15">
+        <v>2.7</v>
+      </c>
+      <c r="BJ15">
+        <v>1</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>13.814</v>
+      </c>
+      <c r="BS15">
+        <v>70</v>
+      </c>
+      <c r="BT15">
+        <v>-6</v>
+      </c>
+      <c r="BU15">
+        <v>1</v>
+      </c>
+      <c r="BV15">
+        <v>5</v>
+      </c>
+      <c r="BW15">
+        <v>3</v>
+      </c>
+      <c r="BX15">
+        <v>12</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0.05</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC15">
+        <v>0.01</v>
+      </c>
+      <c r="CD15">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE15">
+        <v>1.165E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="K16">
+        <v>644.4</v>
+      </c>
+      <c r="L16">
+        <v>798.27</v>
+      </c>
+      <c r="M16">
+        <v>814.05</v>
+      </c>
+      <c r="N16">
+        <v>330.35500000000002</v>
+      </c>
+      <c r="O16">
+        <v>540</v>
+      </c>
+      <c r="P16">
+        <v>648</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>14.2</v>
+      </c>
+      <c r="S16">
+        <v>48.2</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>37</v>
+      </c>
+      <c r="V16">
+        <v>50</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0.3</v>
+      </c>
+      <c r="AD16">
+        <v>1.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.5</v>
+      </c>
+      <c r="AF16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AG16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH16">
+        <v>4.32</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ16">
+        <v>0.96</v>
+      </c>
+      <c r="AK16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN16">
+        <v>0.1</v>
+      </c>
+      <c r="AO16">
+        <v>15</v>
+      </c>
+      <c r="AP16">
+        <v>100</v>
+      </c>
+      <c r="AQ16">
+        <v>0.3</v>
+      </c>
+      <c r="AR16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AS16">
+        <v>5</v>
+      </c>
+      <c r="AT16">
+        <v>4</v>
+      </c>
+      <c r="AU16">
+        <v>10</v>
+      </c>
+      <c r="AV16">
+        <v>15</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0.35</v>
+      </c>
+      <c r="AZ16">
+        <v>0.7</v>
+      </c>
+      <c r="BA16">
+        <v>0.8</v>
+      </c>
+      <c r="BB16">
+        <v>0.95</v>
+      </c>
+      <c r="BC16">
+        <v>0.7</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>2.9</v>
+      </c>
+      <c r="BH16">
+        <v>6</v>
+      </c>
+      <c r="BI16">
+        <v>2.7</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>13.814</v>
+      </c>
+      <c r="BS16">
+        <v>70</v>
+      </c>
+      <c r="BT16">
+        <v>-6</v>
+      </c>
+      <c r="BU16">
+        <v>1</v>
+      </c>
+      <c r="BV16">
+        <v>5</v>
+      </c>
+      <c r="BW16">
+        <v>3</v>
+      </c>
+      <c r="BX16">
+        <v>12</v>
+      </c>
+      <c r="BY16">
+        <v>1</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0.05</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC16">
+        <v>0.01</v>
+      </c>
+      <c r="CD16">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="CE16">
+        <v>1.165E-3</v>
       </c>
     </row>
   </sheetData>
